--- a/날리지포인트_개발자센터_신규개발_피드백_20200624_v0.9.2.xlsx
+++ b/날리지포인트_개발자센터_신규개발_피드백_20200624_v0.9.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowledgepoint\Desktop\work\LeeEunHo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C104E5-72CB-449C-846F-B4F04B3D4466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF655821-53D5-4FAB-AB45-68262B6BC93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3898,8 +3898,8 @@
   </sheetPr>
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -4140,9 +4140,7 @@
         <v>225</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="48" t="s">
-        <v>226</v>
-      </c>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="2:6" ht="105" customHeight="1">
       <c r="B19" s="44" t="s">
@@ -4155,7 +4153,9 @@
         <v>228</v>
       </c>
       <c r="E19" s="73"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="48" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="70.5" customHeight="1" thickBot="1">
       <c r="B20" s="44"/>
@@ -4220,7 +4220,7 @@
   </sheetPr>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>

--- a/날리지포인트_개발자센터_신규개발_피드백_20200624_v0.9.2.xlsx
+++ b/날리지포인트_개발자센터_신규개발_피드백_20200624_v0.9.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowledgepoint\Desktop\work\LeeEunHo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF655821-53D5-4FAB-AB45-68262B6BC93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61047607-D360-4711-8B53-8CE0A3410F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="230">
   <si>
     <t>날리지톡 개발자센터 피드백 [신용환 사원 (2020.04.01 ~ 2020.04.03)]</t>
   </si>
@@ -857,10 +857,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>target이 존재하지 않거나 로그인 하지 않은 상태에서 전화 걸기 버튼 클릭 시 통화가 연결되는 문제.</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 공유</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -923,7 +919,7 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>자사에서 개발한 솔루션을 체험해보면서 사용자와 개발자의 관점으로 동시에 느낄 수 있어 좋은 겸헝이 되었다고 생각합니다.
+    <t>자사에서 개발한 솔루션을 체험해보면서 사용자와 개발자의 관점으로 동시에 느낄 수 있어 좋은 경험이 되었다고 생각합니다.
 연동가이드에 설명과 예시들이 있어 따라하기 수월했고 기능마다 샘플 테스트를 해볼 수 있다는 점이 좋았습니다.
 초보자들을 위해 조금 더 구체적인 설명이 있었으면 좋겠다고 생각했습니다.
 특히 특정 기능에서 오류가 발생하는 상황에 대한 해결 방법 등이 설명에 추가되어 있으면 좋을 것 같습니다.</t>
@@ -3898,8 +3894,8 @@
   </sheetPr>
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -4017,7 +4013,7 @@
         <v>213</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="50" t="s">
@@ -4029,10 +4025,10 @@
         <v>202</v>
       </c>
       <c r="C9" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>215</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>216</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="48"/>
@@ -4042,10 +4038,10 @@
         <v>202</v>
       </c>
       <c r="C10" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="72" t="s">
         <v>217</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>218</v>
       </c>
       <c r="E10" s="73"/>
       <c r="F10" s="93"/>
@@ -4053,7 +4049,7 @@
     <row r="11" spans="2:6" ht="55.05" customHeight="1" thickBot="1"/>
     <row r="12" spans="2:6" ht="49.95" customHeight="1" thickTop="1">
       <c r="B12" s="92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
@@ -4085,7 +4081,7 @@
         <v>203</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="48"/>
@@ -4098,7 +4094,7 @@
         <v>203</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="48"/>
@@ -4111,7 +4107,7 @@
         <v>203</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="48"/>
@@ -4124,7 +4120,7 @@
         <v>110</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="48"/>
@@ -4134,10 +4130,10 @@
         <v>202</v>
       </c>
       <c r="C18" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>224</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>225</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="48"/>
@@ -4147,14 +4143,14 @@
         <v>202</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>227</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>228</v>
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="70.5" customHeight="1" thickBot="1">
@@ -4165,7 +4161,7 @@
     </row>
     <row r="21" spans="2:6" ht="70.5" customHeight="1" thickTop="1">
       <c r="B21" s="92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
@@ -4174,7 +4170,7 @@
     </row>
     <row r="22" spans="2:6" ht="70.8" customHeight="1">
       <c r="B22" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="99"/>
